--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2818.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2818.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.174923724638877</v>
+        <v>0.89402836561203</v>
       </c>
       <c r="B1">
-        <v>2.440472897698668</v>
+        <v>1.781641840934753</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.17420482635498</v>
       </c>
       <c r="D1">
-        <v>2.364337770931054</v>
+        <v>3.497797966003418</v>
       </c>
       <c r="E1">
-        <v>1.233283519160761</v>
+        <v>1.507249593734741</v>
       </c>
     </row>
   </sheetData>
